--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1714412.187843383</v>
+        <v>1716488.584499728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1700841.229738717</v>
+        <v>1700841.229738718</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.602605461619501</v>
+        <v>3.487951988786138</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T3" t="n">
         <v>12.73205987707308</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,25 +823,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.47865120333094</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>9.956053622142033</v>
       </c>
       <c r="S5" t="n">
         <v>15.30273751513505</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>13.47865120333094</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T7" t="n">
         <v>15.30273751513505</v>
@@ -1111,7 +1111,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="V7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.9346168091141</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,58 +1227,58 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I9" t="n">
-        <v>21.81976115797297</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="10">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>134.667568689459</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>222.7001219926227</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>39.82778746869526</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.8169472598111</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>56.17547468870995</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,55 +1999,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>103.0088977318019</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>84.47684708846107</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>12.79518028318075</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>76.04701294868006</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>57.22498325051233</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>74.50896005745452</v>
+        <v>180.4204781476724</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>289.8093232149258</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>289.8093232149258</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>277.1292905647888</v>
       </c>
       <c r="I29" t="n">
-        <v>148.1303780194276</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>87.52360639017132</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>160.750338013153</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>189.0001413568581</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>265.4067469191565</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>286.8954571664347</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.187672098889</v>
+        <v>44.73845653727562</v>
       </c>
       <c r="C30" t="n">
         <v>110.3629874373374</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>95.29956890442259</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.72370084240552</v>
       </c>
       <c r="G30" t="n">
-        <v>38.76653157426526</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>109.3376595528595</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>137.8192171438432</v>
       </c>
       <c r="U30" t="n">
         <v>163.5958705299965</v>
       </c>
       <c r="V30" t="n">
-        <v>170.4550755984469</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>189.3494716099412</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>143.4274736524991</v>
       </c>
       <c r="Y30" t="n">
         <v>143.337184226326</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>85.54480514610998</v>
+        <v>161.6710864859939</v>
       </c>
       <c r="T31" t="n">
-        <v>165.6000778773031</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>189.7921317728496</v>
       </c>
       <c r="W31" t="n">
-        <v>224.1774867856126</v>
+        <v>123.8591515501821</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>289.809323214926</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>150.1248726640416</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>289.809323214926</v>
       </c>
       <c r="G32" t="n">
-        <v>289.809323214926</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>87.52360639017132</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>146.674558035267</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>160.750338013153</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>255.2640518877066</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.809323214926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>104.187672098889</v>
       </c>
       <c r="C33" t="n">
         <v>110.3629874373374</v>
       </c>
       <c r="D33" t="n">
-        <v>85.09955401366039</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>95.29956890442259</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.72370084240552</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>27.05112130043671</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.63768392869793</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>109.3376595528595</v>
@@ -3165,16 +3165,16 @@
         <v>163.5958705299965</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>170.4550755984469</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>185.5060655186132</v>
       </c>
       <c r="X33" t="n">
         <v>143.4274736524991</v>
       </c>
       <c r="Y33" t="n">
-        <v>143.337184226326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.1713652179005</v>
       </c>
       <c r="F34" t="n">
-        <v>83.07553647195289</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.6710864859939</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>224.1774867856126</v>
       </c>
       <c r="X34" t="n">
-        <v>6.602229045566393</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>23.28524428658402</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>23.2852442865839</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.89000332151173</v>
+        <v>104.187672098889</v>
       </c>
       <c r="C36" t="n">
-        <v>110.3629874373374</v>
+        <v>96.13101125434484</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>95.29956890442259</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>109.3376595528595</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>163.5958705299965</v>
       </c>
       <c r="V36" t="n">
-        <v>170.4550755984469</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>189.3494716099412</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>143.4274736524991</v>
       </c>
       <c r="Y36" t="n">
         <v>143.337184226326</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>47.83768232312572</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>105.6454678074804</v>
       </c>
       <c r="H37" t="n">
-        <v>99.88166095646122</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.10496337627993</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.01366856569441</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>165.6000778773031</v>
       </c>
       <c r="U37" t="n">
-        <v>145.6766091031097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>156.2391418011164</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>145.8747784726812</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,61 +3515,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>146.674558035267</v>
+      </c>
+      <c r="T38" t="n">
+        <v>160.750338013153</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>189.0001413568581</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>23.28524428658402</v>
       </c>
     </row>
     <row r="39">
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>82.72370084240552</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>74.99800561223228</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>25.48421148404055</v>
+        <v>163.5958705299965</v>
       </c>
       <c r="V39" t="n">
-        <v>170.4550755984469</v>
+        <v>40.06911178266427</v>
       </c>
       <c r="W39" t="n">
         <v>189.3494716099412</v>
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>86.269961467234</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.07553647195289</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.541373856937739</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.81653170071602</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>114.9478798261911</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>161.6710864859939</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>94.90574122229677</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>224.1774867856126</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>156.2391418011164</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>30.10136873880479</v>
+        <v>145.8747784726812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,22 +3785,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>87.52360639017132</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>146.674558035267</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>160.750338013153</v>
       </c>
       <c r="U41" t="n">
-        <v>189.0001413568581</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.187672098889</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>110.3629874373374</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>6.394689749190154</v>
       </c>
       <c r="E42" t="n">
-        <v>20.97550456032052</v>
+        <v>95.29956890442259</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>109.3376595528595</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>137.8192171438432</v>
       </c>
       <c r="U42" t="n">
-        <v>163.5958705299965</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>170.4550755984469</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>189.3494716099412</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>84.08845109559081</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.07553647195289</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.6454678074804</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>114.9478798261911</v>
       </c>
       <c r="S43" t="n">
-        <v>161.6710864859939</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>89.67776551751923</v>
+        <v>87.56503460781063</v>
       </c>
       <c r="U43" t="n">
-        <v>223.9735178055125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.2131257424249</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>127.2677095216128</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.54165161445989</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="C2" t="n">
-        <v>54.54165161445989</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="D2" t="n">
-        <v>39.08434099311135</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="E2" t="n">
-        <v>23.62703037176281</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="F2" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="G2" t="n">
         <v>16.68152962255934</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.224219001210804</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I2" t="n">
         <v>1.224219001210804</v>
@@ -4331,49 +4331,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O3" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P3" t="n">
         <v>46.0612399205565</v>
@@ -4434,25 +4434,25 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S3" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T3" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="U3" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="V3" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W3" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X3" t="n">
         <v>17.43566227534506</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E4" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F4" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G4" t="n">
         <v>16.68152962255934</v>
       </c>
       <c r="H4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
@@ -4495,7 +4495,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
         <v>46.0612399205565</v>
@@ -4507,31 +4507,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="S4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="T4" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U4" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V4" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C5" t="n">
-        <v>30.29632881784312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D5" t="n">
-        <v>30.29632881784312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E5" t="n">
-        <v>30.29632881784312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M5" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4589,28 +4589,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.15433024019471</v>
       </c>
       <c r="S5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E6" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F6" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G6" t="n">
         <v>17.43566227534506</v>
@@ -4656,10 +4656,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="N6" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P6" t="n">
         <v>46.0612399205565</v>
@@ -4668,22 +4668,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X6" t="n">
         <v>45.75363943919166</v>
@@ -4729,10 +4729,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
         <v>46.0612399205565</v>
@@ -4750,25 +4750,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T7" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.45600517878097</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="C8" t="n">
-        <v>55.45600517878097</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="D8" t="n">
-        <v>55.45600517878097</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="E8" t="n">
-        <v>55.45600517878097</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="F8" t="n">
-        <v>29.57692316400236</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="G8" t="n">
         <v>14.11961254265382</v>
@@ -4805,13 +4805,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N8" t="n">
         <v>77.1170764958388</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.6020827637447</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C9" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D9" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E9" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N9" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
+        <v>51.75298821315428</v>
+      </c>
+      <c r="P9" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="P9" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5060,22 +5060,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W11" t="n">
         <v>962.2293816994886</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342.668582052591</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C12" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>510.883919072659</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>510.883919072659</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>510.883919072659</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y12" t="n">
-        <v>510.883919072659</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="13">
@@ -5188,10 +5188,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>113.583345248266</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>726.0875267598396</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9390269653725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>933.9390269653725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>933.9390269653725</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W15" t="n">
-        <v>933.9390269653725</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X15" t="n">
-        <v>726.0875267598396</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y15" t="n">
-        <v>726.0875267598396</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>491.7024528141798</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>317.2494235330527</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>317.2494235330527</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>907.3142517846666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>907.3142517846666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>907.3142517846666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>699.4627515791337</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>491.7024528141798</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5695,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C21" t="n">
-        <v>413.5372890039083</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D21" t="n">
-        <v>264.602879342657</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E21" t="n">
-        <v>105.3654243372015</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,16 +5832,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>345.4870131375847</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>96.85044035762476</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6342,13 @@
         <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X27" t="n">
-        <v>588.4532163200711</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="Y27" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>248.0729661368729</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="C29" t="n">
-        <v>172.8113903212623</v>
+        <v>888.586702417437</v>
       </c>
       <c r="D29" t="n">
-        <v>172.8113903212623</v>
+        <v>888.586702417437</v>
       </c>
       <c r="E29" t="n">
-        <v>172.8113903212623</v>
+        <v>595.8500123013503</v>
       </c>
       <c r="F29" t="n">
-        <v>172.8113903212623</v>
+        <v>595.8500123013503</v>
       </c>
       <c r="G29" t="n">
-        <v>172.8113903212623</v>
+        <v>303.1133221852635</v>
       </c>
       <c r="H29" t="n">
-        <v>172.8113903212623</v>
+        <v>23.18474585719407</v>
       </c>
       <c r="I29" t="n">
         <v>23.18474585719407</v>
       </c>
       <c r="J29" t="n">
-        <v>73.07700583159625</v>
+        <v>73.07700583159624</v>
       </c>
       <c r="K29" t="n">
         <v>176.0920117425186</v>
       </c>
       <c r="L29" t="n">
-        <v>356.1678633271772</v>
+        <v>383.9988173063236</v>
       </c>
       <c r="M29" t="n">
         <v>600.9744445692278</v>
       </c>
       <c r="N29" t="n">
-        <v>806.828966776467</v>
+        <v>868.5510232119351</v>
       </c>
       <c r="O29" t="n">
         <v>1017.745973354583</v>
@@ -6482,31 +6482,31 @@
         <v>1107.406028646634</v>
       </c>
       <c r="Q29" t="n">
-        <v>1159.237292859704</v>
+        <v>1159.237292859703</v>
       </c>
       <c r="R29" t="n">
-        <v>1159.237292859704</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="S29" t="n">
-        <v>1159.237292859704</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="T29" t="n">
-        <v>996.8632140585389</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="U29" t="n">
-        <v>805.9539803647428</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="V29" t="n">
-        <v>537.8663572140797</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="W29" t="n">
-        <v>248.0729661368729</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="X29" t="n">
-        <v>248.0729661368729</v>
+        <v>1070.829609637308</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.0729661368729</v>
+        <v>1070.829609637308</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>270.0828144592398</v>
+        <v>218.2218047256213</v>
       </c>
       <c r="C30" t="n">
-        <v>158.6050493710202</v>
+        <v>106.7440396374017</v>
       </c>
       <c r="D30" t="n">
-        <v>158.6050493710202</v>
+        <v>106.7440396374017</v>
       </c>
       <c r="E30" t="n">
-        <v>62.34285855847212</v>
+        <v>106.7440396374017</v>
       </c>
       <c r="F30" t="n">
-        <v>62.34285855847212</v>
+        <v>23.18474585719407</v>
       </c>
       <c r="G30" t="n">
         <v>23.18474585719407</v>
@@ -6543,49 +6543,49 @@
         <v>23.18474585719407</v>
       </c>
       <c r="K30" t="n">
-        <v>148.5423059150315</v>
+        <v>23.18474585719407</v>
       </c>
       <c r="L30" t="n">
-        <v>378.5054117833806</v>
+        <v>253.1478517255432</v>
       </c>
       <c r="M30" t="n">
-        <v>665.4166417661572</v>
+        <v>371.5346126662844</v>
       </c>
       <c r="N30" t="n">
-        <v>952.3278717489338</v>
+        <v>658.445842649061</v>
       </c>
       <c r="O30" t="n">
-        <v>1089.842734346374</v>
+        <v>907.1992567330233</v>
       </c>
       <c r="P30" t="n">
         <v>1089.842734346374</v>
       </c>
       <c r="Q30" t="n">
-        <v>1159.237292859704</v>
+        <v>1159.237292859703</v>
       </c>
       <c r="R30" t="n">
-        <v>1159.237292859704</v>
+        <v>1159.237292859703</v>
       </c>
       <c r="S30" t="n">
         <v>1048.79521250328</v>
       </c>
       <c r="T30" t="n">
-        <v>1048.79521250328</v>
+        <v>909.5838820549531</v>
       </c>
       <c r="U30" t="n">
-        <v>883.5468584325763</v>
+        <v>744.3355279842496</v>
       </c>
       <c r="V30" t="n">
-        <v>711.370014393741</v>
+        <v>744.3355279842496</v>
       </c>
       <c r="W30" t="n">
-        <v>520.1079218584468</v>
+        <v>553.0734354489554</v>
       </c>
       <c r="X30" t="n">
-        <v>520.1079218584468</v>
+        <v>408.19719943633</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.3228872864004</v>
+        <v>263.4121648642835</v>
       </c>
     </row>
     <row r="31">
@@ -6622,7 +6622,7 @@
         <v>23.18474585719407</v>
       </c>
       <c r="K31" t="n">
-        <v>62.86000538503863</v>
+        <v>62.86000538503862</v>
       </c>
       <c r="L31" t="n">
         <v>151.8961868282202</v>
@@ -6634,28 +6634,28 @@
         <v>358.2191885468158</v>
       </c>
       <c r="O31" t="n">
-        <v>444.2805216171837</v>
+        <v>444.2805216171836</v>
       </c>
       <c r="P31" t="n">
-        <v>503.3083517248969</v>
+        <v>503.3083517248967</v>
       </c>
       <c r="Q31" t="n">
-        <v>503.3083517248969</v>
+        <v>503.3083517248967</v>
       </c>
       <c r="R31" t="n">
-        <v>503.3083517248969</v>
+        <v>503.3083517248967</v>
       </c>
       <c r="S31" t="n">
-        <v>416.8994576379171</v>
+        <v>340.0042239612665</v>
       </c>
       <c r="T31" t="n">
-        <v>249.6266517012473</v>
+        <v>340.0042239612665</v>
       </c>
       <c r="U31" t="n">
-        <v>249.6266517012473</v>
+        <v>340.0042239612665</v>
       </c>
       <c r="V31" t="n">
-        <v>249.6266517012473</v>
+        <v>148.2949999482871</v>
       </c>
       <c r="W31" t="n">
         <v>23.18474585719407</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>608.6581260893679</v>
+        <v>467.5627214925149</v>
       </c>
       <c r="C32" t="n">
-        <v>608.6581260893679</v>
+        <v>315.9214359732809</v>
       </c>
       <c r="D32" t="n">
-        <v>608.6581260893679</v>
+        <v>315.9214359732809</v>
       </c>
       <c r="E32" t="n">
-        <v>608.6581260893679</v>
+        <v>315.9214359732809</v>
       </c>
       <c r="F32" t="n">
-        <v>315.9214359732809</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="G32" t="n">
         <v>23.18474585719408</v>
@@ -6698,52 +6698,52 @@
         <v>23.18474585719408</v>
       </c>
       <c r="J32" t="n">
-        <v>73.07700583159627</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="K32" t="n">
-        <v>176.0920117425186</v>
+        <v>187.921808203585</v>
       </c>
       <c r="L32" t="n">
-        <v>356.1678633271772</v>
+        <v>367.9976597882436</v>
       </c>
       <c r="M32" t="n">
-        <v>634.86554702555</v>
+        <v>646.6953434866164</v>
       </c>
       <c r="N32" t="n">
-        <v>858.6602309895363</v>
+        <v>852.5498656938557</v>
       </c>
       <c r="O32" t="n">
-        <v>1069.577237567653</v>
+        <v>1063.466872271973</v>
       </c>
       <c r="P32" t="n">
-        <v>1159.237292859704</v>
+        <v>1153.126927564023</v>
       </c>
       <c r="Q32" t="n">
         <v>1159.237292859704</v>
       </c>
       <c r="R32" t="n">
-        <v>1159.237292859704</v>
+        <v>1070.829609637309</v>
       </c>
       <c r="S32" t="n">
-        <v>1159.237292859704</v>
+        <v>922.6734904097664</v>
       </c>
       <c r="T32" t="n">
-        <v>1159.237292859704</v>
+        <v>760.2994116086018</v>
       </c>
       <c r="U32" t="n">
-        <v>1159.237292859704</v>
+        <v>760.2994116086018</v>
       </c>
       <c r="V32" t="n">
-        <v>1159.237292859704</v>
+        <v>760.2994116086018</v>
       </c>
       <c r="W32" t="n">
-        <v>1159.237292859704</v>
+        <v>760.2994116086018</v>
       </c>
       <c r="X32" t="n">
-        <v>901.3948162054548</v>
+        <v>760.2994116086018</v>
       </c>
       <c r="Y32" t="n">
-        <v>608.6581260893679</v>
+        <v>760.2994116086018</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>427.7675059564492</v>
+        <v>134.6625109454137</v>
       </c>
       <c r="C33" t="n">
-        <v>316.2897408682296</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="D33" t="n">
-        <v>230.3305953998858</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="E33" t="n">
-        <v>134.0684045873377</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="F33" t="n">
-        <v>50.50911080713016</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="G33" t="n">
-        <v>50.50911080713016</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="H33" t="n">
-        <v>50.50911080713016</v>
+        <v>23.18474585719408</v>
       </c>
       <c r="I33" t="n">
         <v>23.18474585719408</v>
@@ -6801,28 +6801,28 @@
         <v>1159.237292859704</v>
       </c>
       <c r="R33" t="n">
-        <v>1132.330541416575</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="S33" t="n">
-        <v>1021.888461060151</v>
+        <v>1048.79521250328</v>
       </c>
       <c r="T33" t="n">
-        <v>882.6771306118246</v>
+        <v>909.5838820549537</v>
       </c>
       <c r="U33" t="n">
-        <v>717.4287765411211</v>
+        <v>744.3355279842502</v>
       </c>
       <c r="V33" t="n">
-        <v>717.4287765411211</v>
+        <v>572.158683945415</v>
       </c>
       <c r="W33" t="n">
-        <v>717.4287765411211</v>
+        <v>384.7788197851996</v>
       </c>
       <c r="X33" t="n">
-        <v>572.5525405284957</v>
+        <v>239.9025837725742</v>
       </c>
       <c r="Y33" t="n">
-        <v>427.7675059564492</v>
+        <v>239.9025837725742</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.099429162197</v>
+        <v>706.559510444426</v>
       </c>
       <c r="C34" t="n">
-        <v>107.099429162197</v>
+        <v>706.559510444426</v>
       </c>
       <c r="D34" t="n">
-        <v>107.099429162197</v>
+        <v>706.559510444426</v>
       </c>
       <c r="E34" t="n">
-        <v>107.099429162197</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="F34" t="n">
-        <v>23.18474585719408</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="G34" t="n">
-        <v>23.18474585719408</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="H34" t="n">
-        <v>23.18474585719408</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="I34" t="n">
-        <v>23.18474585719408</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="J34" t="n">
-        <v>23.18474585719408</v>
+        <v>679.1136869920012</v>
       </c>
       <c r="K34" t="n">
-        <v>62.86000538503864</v>
+        <v>718.7889465198458</v>
       </c>
       <c r="L34" t="n">
-        <v>151.8961868282202</v>
+        <v>807.8251279630274</v>
       </c>
       <c r="M34" t="n">
-        <v>252.8062814559109</v>
+        <v>908.7352225907182</v>
       </c>
       <c r="N34" t="n">
-        <v>358.2191885468158</v>
+        <v>1014.148129681623</v>
       </c>
       <c r="O34" t="n">
-        <v>444.2805216171837</v>
+        <v>1100.209462751991</v>
       </c>
       <c r="P34" t="n">
-        <v>503.3083517248969</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="Q34" t="n">
-        <v>503.3083517248969</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="R34" t="n">
-        <v>503.3083517248969</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="S34" t="n">
-        <v>340.0042239612666</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="T34" t="n">
-        <v>340.0042239612666</v>
+        <v>1159.237292859704</v>
       </c>
       <c r="U34" t="n">
-        <v>113.7683473900418</v>
+        <v>933.0014162884792</v>
       </c>
       <c r="V34" t="n">
-        <v>113.7683473900418</v>
+        <v>933.0014162884792</v>
       </c>
       <c r="W34" t="n">
-        <v>113.7683473900418</v>
+        <v>706.559510444426</v>
       </c>
       <c r="X34" t="n">
-        <v>107.099429162197</v>
+        <v>706.559510444426</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.099429162197</v>
+        <v>706.559510444426</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.2503685286401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>773.1479218168402</v>
       </c>
       <c r="W35" t="n">
-        <v>529.6991451727401</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>529.6991451727401</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>529.6991451727401</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>130.7589081984323</v>
+        <v>212.6453654928061</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>115.5433339227608</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>115.5433339227608</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>853.6150751542125</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>853.6150751542125</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>688.366721083509</v>
+        <v>798.8088014399327</v>
       </c>
       <c r="V36" t="n">
-        <v>516.1898770446737</v>
+        <v>798.8088014399327</v>
       </c>
       <c r="W36" t="n">
-        <v>324.9277845093795</v>
+        <v>607.5467089046385</v>
       </c>
       <c r="X36" t="n">
-        <v>324.9277845093795</v>
+        <v>462.6704728920132</v>
       </c>
       <c r="Y36" t="n">
-        <v>180.1427499373331</v>
+        <v>317.8854383199667</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.2566589747743</v>
+        <v>174.314628090623</v>
       </c>
       <c r="C37" t="n">
-        <v>352.2566589747743</v>
+        <v>125.9937368551424</v>
       </c>
       <c r="D37" t="n">
-        <v>352.2566589747743</v>
+        <v>125.9937368551424</v>
       </c>
       <c r="E37" t="n">
-        <v>352.2566589747743</v>
+        <v>125.9937368551424</v>
       </c>
       <c r="F37" t="n">
-        <v>352.2566589747743</v>
+        <v>125.9937368551424</v>
       </c>
       <c r="G37" t="n">
-        <v>245.5440652298446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>144.6534986071565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>50.6080810553586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7123,22 @@
         <v>499.4047489779155</v>
       </c>
       <c r="T37" t="n">
-        <v>499.4047489779155</v>
+        <v>332.1319430412456</v>
       </c>
       <c r="U37" t="n">
-        <v>352.2566589747743</v>
+        <v>332.1319430412456</v>
       </c>
       <c r="V37" t="n">
-        <v>352.2566589747743</v>
+        <v>332.1319430412456</v>
       </c>
       <c r="W37" t="n">
-        <v>352.2566589747743</v>
+        <v>332.1319430412456</v>
       </c>
       <c r="X37" t="n">
-        <v>352.2566589747743</v>
+        <v>332.1319430412456</v>
       </c>
       <c r="Y37" t="n">
-        <v>352.2566589747743</v>
+        <v>174.314628090623</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>166.6294041937291</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>166.6294041937291</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>815.9010362830938</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="U38" t="n">
-        <v>773.1479218168402</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="V38" t="n">
-        <v>773.1479218168402</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="W38" t="n">
-        <v>529.6991451727401</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="X38" t="n">
-        <v>286.2503685286401</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>166.6294041937291</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>214.3182019786399</v>
+        <v>206.5144694229094</v>
       </c>
       <c r="C39" t="n">
-        <v>102.8404368904203</v>
+        <v>95.03670433468977</v>
       </c>
       <c r="D39" t="n">
-        <v>102.8404368904203</v>
+        <v>95.03670433468977</v>
       </c>
       <c r="E39" t="n">
-        <v>102.8404368904203</v>
+        <v>95.03670433468977</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>95.03670433468977</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
         <v>894.6625969973069</v>
@@ -7284,19 +7284,19 @@
         <v>853.6150751542125</v>
       </c>
       <c r="U39" t="n">
-        <v>827.8734473925554</v>
+        <v>688.366721083509</v>
       </c>
       <c r="V39" t="n">
-        <v>655.6966033537201</v>
+        <v>647.8928707979895</v>
       </c>
       <c r="W39" t="n">
-        <v>464.4345108184258</v>
+        <v>456.6307782626953</v>
       </c>
       <c r="X39" t="n">
-        <v>319.5582748058005</v>
+        <v>311.75454225007</v>
       </c>
       <c r="Y39" t="n">
-        <v>319.5582748058005</v>
+        <v>311.75454225007</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>195.9345489648841</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="C40" t="n">
-        <v>195.9345489648841</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="D40" t="n">
-        <v>108.7931737454558</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="E40" t="n">
-        <v>108.7931737454558</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="F40" t="n">
-        <v>24.87849044045286</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="K40" t="n">
-        <v>58.95640263805728</v>
+        <v>523.6088091707779</v>
       </c>
       <c r="L40" t="n">
-        <v>147.9925840812388</v>
+        <v>612.6449906139595</v>
       </c>
       <c r="M40" t="n">
-        <v>248.9026787089296</v>
+        <v>713.5550852416503</v>
       </c>
       <c r="N40" t="n">
-        <v>354.3155857998344</v>
+        <v>818.9679923325552</v>
       </c>
       <c r="O40" t="n">
-        <v>440.3769188702023</v>
+        <v>905.0293254029231</v>
       </c>
       <c r="P40" t="n">
-        <v>499.4047489779155</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>475.3476462499195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>359.2386767285143</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>195.9345489648841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>195.9345489648841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>195.9345489648841</v>
+        <v>868.1927704376092</v>
       </c>
       <c r="V40" t="n">
-        <v>195.9345489648841</v>
+        <v>868.1927704376092</v>
       </c>
       <c r="W40" t="n">
-        <v>195.9345489648841</v>
+        <v>641.750864593556</v>
       </c>
       <c r="X40" t="n">
-        <v>195.9345489648841</v>
+        <v>641.750864593556</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.9345489648841</v>
+        <v>483.9335496429334</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="C41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="D41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="E41" t="n">
-        <v>49.68656607870241</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="F41" t="n">
-        <v>49.68656607870241</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="G41" t="n">
-        <v>49.68656607870241</v>
+        <v>410.0781808378292</v>
       </c>
       <c r="H41" t="n">
-        <v>49.68656607870241</v>
+        <v>166.6294041937291</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>875.649472288241</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>727.4933530606986</v>
+        <v>815.9010362830938</v>
       </c>
       <c r="T41" t="n">
-        <v>727.4933530606986</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="U41" t="n">
-        <v>536.5841193669025</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="V41" t="n">
-        <v>293.1353427228025</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="W41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="X41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.68656607870241</v>
+        <v>653.5269574819292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40.46852145397082</v>
+        <v>233.4803815859199</v>
       </c>
       <c r="C42" t="n">
-        <v>40.46852145397082</v>
+        <v>122.0026164977003</v>
       </c>
       <c r="D42" t="n">
-        <v>40.46852145397082</v>
+        <v>115.5433339227608</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7503,10 +7503,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6150751542125</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>714.403744705886</v>
       </c>
       <c r="U42" t="n">
-        <v>798.8088014399327</v>
+        <v>714.403744705886</v>
       </c>
       <c r="V42" t="n">
-        <v>626.6319574010975</v>
+        <v>714.403744705886</v>
       </c>
       <c r="W42" t="n">
-        <v>435.3698648658033</v>
+        <v>523.1416521705918</v>
       </c>
       <c r="X42" t="n">
-        <v>290.4936288531779</v>
+        <v>378.2654161579664</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.7085942811314</v>
+        <v>233.4803815859199</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>674.5608266928659</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>590.646143387863</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>483.9335496429334</v>
       </c>
       <c r="K43" t="n">
-        <v>58.95640263805728</v>
+        <v>523.6088091707779</v>
       </c>
       <c r="L43" t="n">
-        <v>147.9925840812388</v>
+        <v>612.6449906139595</v>
       </c>
       <c r="M43" t="n">
-        <v>248.9026787089296</v>
+        <v>713.5550852416503</v>
       </c>
       <c r="N43" t="n">
-        <v>354.3155857998344</v>
+        <v>818.9679923325552</v>
       </c>
       <c r="O43" t="n">
-        <v>440.3769188702023</v>
+        <v>905.0293254029231</v>
       </c>
       <c r="P43" t="n">
-        <v>499.4047489779155</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>499.4047489779155</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>499.4047489779155</v>
+        <v>847.948185989231</v>
       </c>
       <c r="S43" t="n">
-        <v>336.1006212142852</v>
+        <v>847.948185989231</v>
       </c>
       <c r="T43" t="n">
-        <v>245.5170196814375</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>759.4986560823515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
         <v>262.7299197543128</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6603993626354</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,13 +7734,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>662.086569020282</v>
       </c>
       <c r="W45" t="n">
-        <v>399.5118995681682</v>
+        <v>662.086569020282</v>
       </c>
       <c r="X45" t="n">
-        <v>191.6603993626354</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6603993626354</v>
+        <v>454.2350688147492</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>234.7742961352617</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
         <v>153.8571172950092</v>
@@ -8067,13 +8067,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>155.2845116011566</v>
@@ -8143,10 +8143,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O4" t="n">
         <v>153.7592759669778</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M5" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8304,13 +8304,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>148.6588525046114</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
         <v>155.2845116011566</v>
@@ -8377,13 +8377,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
         <v>153.7592759669778</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
         <v>255.7185026163176</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,13 +9015,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>431.9433571369442</v>
+        <v>261.7166207308478</v>
       </c>
       <c r="N30" t="n">
-        <v>421.1510352982592</v>
+        <v>421.1510352982591</v>
       </c>
       <c r="O30" t="n">
-        <v>281.5001460580207</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10914,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,7 +11391,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>38.04093029885675</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,10 +23394,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>10.10046515680261</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.1631918897635</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>242.3541153134493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23625,13 +23625,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3477814350105</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>48.16969849197108</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,7 +23865,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>169.7659073922649</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23972,13 +23972,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,10 +23987,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>60.59236530492281</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24209,13 +24209,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>98.1469632631722</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24285,16 +24285,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>159.913318705135</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>81.59806750672088</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,10 +24446,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>87.84422914287154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>88.98961738068117</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24680,25 @@
         <v>320.3883301125022</v>
       </c>
       <c r="C29" t="n">
-        <v>228.4184201625747</v>
+        <v>122.5069020723568</v>
       </c>
       <c r="D29" t="n">
         <v>292.3375300697046</v>
       </c>
       <c r="E29" t="n">
-        <v>319.5848585212834</v>
+        <v>29.7755353063576</v>
       </c>
       <c r="F29" t="n">
         <v>344.5305341907331</v>
       </c>
       <c r="G29" t="n">
-        <v>352.9572259641567</v>
+        <v>63.14790274923087</v>
       </c>
       <c r="H29" t="n">
-        <v>277.1292905647888</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>148.1303780194276</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>87.52360639017132</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>146.674558035267</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>160.750338013153</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>189.0001413568581</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>265.4067469191565</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>286.8954571664347</v>
       </c>
       <c r="X29" t="n">
         <v>307.3855891274907</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>59.44921556161336</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24765,19 @@
         <v>85.09955401366039</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>95.29956890442259</v>
       </c>
       <c r="F30" t="n">
-        <v>82.72370084240552</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>36.23147403796702</v>
+        <v>74.99800561223228</v>
       </c>
       <c r="H30" t="n">
         <v>49.8899326855181</v>
       </c>
       <c r="I30" t="n">
-        <v>27.05112130043671</v>
+        <v>27.05112130043672</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,19 +24810,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>137.8192171438432</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>170.4550755984469</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>143.4274736524991</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>93.10496337627993</v>
       </c>
       <c r="J31" t="n">
-        <v>31.01366856569441</v>
+        <v>31.01366856569442</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.81653170071602</v>
+        <v>23.81653170071603</v>
       </c>
       <c r="R31" t="n">
         <v>114.9478798261911</v>
       </c>
       <c r="S31" t="n">
-        <v>76.12628133988392</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>165.6000778773031</v>
       </c>
       <c r="U31" t="n">
         <v>223.9735178055125</v>
       </c>
       <c r="V31" t="n">
-        <v>189.7921317728496</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>100.3183352354306</v>
       </c>
       <c r="X31" t="n">
         <v>163.3641438380588</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>320.3883301125022</v>
+        <v>30.57900689757622</v>
       </c>
       <c r="C32" t="n">
-        <v>302.9273802200292</v>
+        <v>152.8025075559876</v>
       </c>
       <c r="D32" t="n">
         <v>292.3375300697046</v>
@@ -24929,7 +24929,7 @@
         <v>54.72121097580708</v>
       </c>
       <c r="G32" t="n">
-        <v>63.1479027492307</v>
+        <v>352.9572259641567</v>
       </c>
       <c r="H32" t="n">
         <v>277.1292905647888</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>87.52360639017132</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>146.674558035267</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>160.750338013153</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>189.0001413568581</v>
@@ -24980,10 +24980,10 @@
         <v>286.8954571664347</v>
       </c>
       <c r="X32" t="n">
-        <v>52.12153723978403</v>
+        <v>307.3855891274907</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.08310389014923</v>
+        <v>323.8924271050752</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.187672098889</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>85.09955401366039</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>95.29956890442259</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.72370084240552</v>
       </c>
       <c r="G33" t="n">
         <v>74.99800561223228</v>
@@ -25014,7 +25014,7 @@
         <v>49.8899326855181</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>27.05112130043672</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.17463867296684</v>
+        <v>37.81232260166477</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>170.4550755984469</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>189.3494716099412</v>
+        <v>3.843406091328092</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>143.337184226326</v>
       </c>
     </row>
     <row r="34">
@@ -25081,10 +25081,10 @@
         <v>86.269961467234</v>
       </c>
       <c r="E34" t="n">
-        <v>84.08845109559081</v>
+        <v>56.91708587769031</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.07553647195289</v>
       </c>
       <c r="G34" t="n">
         <v>105.6454678074804</v>
@@ -25096,7 +25096,7 @@
         <v>93.10496337627993</v>
       </c>
       <c r="J34" t="n">
-        <v>31.01366856569441</v>
+        <v>31.01366856569442</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.81653170071602</v>
+        <v>23.81653170071603</v>
       </c>
       <c r="R34" t="n">
         <v>114.9478798261911</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.6710864859939</v>
       </c>
       <c r="T34" t="n">
         <v>165.6000778773031</v>
@@ -25135,10 +25135,10 @@
         <v>189.7921317728496</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1774867856126</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>156.7619147924924</v>
+        <v>163.3641438380588</v>
       </c>
       <c r="Y34" t="n">
         <v>156.2391418011164</v>
@@ -25154,7 +25154,7 @@
         <v>79.37404123484316</v>
       </c>
       <c r="C35" t="n">
-        <v>279.6421359334452</v>
+        <v>302.9273802200292</v>
       </c>
       <c r="D35" t="n">
         <v>292.3375300697046</v>
@@ -25166,7 +25166,7 @@
         <v>344.5305341907331</v>
       </c>
       <c r="G35" t="n">
-        <v>111.9429370864976</v>
+        <v>352.9572259641567</v>
       </c>
       <c r="H35" t="n">
         <v>277.1292905647888</v>
@@ -25214,13 +25214,13 @@
         <v>265.4067469191565</v>
       </c>
       <c r="W35" t="n">
-        <v>45.8811682887756</v>
+        <v>263.6102128798507</v>
       </c>
       <c r="X35" t="n">
-        <v>307.3855891274907</v>
+        <v>66.37130024983162</v>
       </c>
       <c r="Y35" t="n">
-        <v>323.8924271050752</v>
+        <v>82.87813822741617</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.29766877737725</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>14.23197618299254</v>
       </c>
       <c r="D36" t="n">
         <v>85.09955401366039</v>
       </c>
       <c r="E36" t="n">
-        <v>95.29956890442259</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>82.72370084240552</v>
@@ -25251,7 +25251,7 @@
         <v>49.8899326855181</v>
       </c>
       <c r="I36" t="n">
-        <v>27.05112130043671</v>
+        <v>27.05112130043672</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>37.81232260166477</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>109.3376595528595</v>
       </c>
       <c r="T36" t="n">
         <v>137.8192171438432</v>
@@ -25290,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>170.4550755984469</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>143.4274736524991</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>117.4864686309589</v>
       </c>
       <c r="C37" t="n">
-        <v>104.9013095476495</v>
+        <v>57.06362722452376</v>
       </c>
       <c r="D37" t="n">
         <v>86.269961467234</v>
@@ -25327,13 +25327,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>99.88166095646122</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.10496337627993</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>31.01366856569442</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.81653170071602</v>
+        <v>23.81653170071603</v>
       </c>
       <c r="R37" t="n">
         <v>114.9478798261911</v>
@@ -25363,10 +25363,10 @@
         <v>161.6710864859939</v>
       </c>
       <c r="T37" t="n">
-        <v>165.6000778773031</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>78.29690870240282</v>
+        <v>223.9735178055125</v>
       </c>
       <c r="V37" t="n">
         <v>189.7921317728496</v>
@@ -25378,7 +25378,7 @@
         <v>163.3641438380588</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.2391418011164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25394,7 @@
         <v>302.9273802200292</v>
       </c>
       <c r="D38" t="n">
-        <v>292.3375300697046</v>
+        <v>146.4627515970234</v>
       </c>
       <c r="E38" t="n">
         <v>319.5848585212834</v>
@@ -25403,7 +25403,7 @@
         <v>344.5305341907331</v>
       </c>
       <c r="G38" t="n">
-        <v>111.9429370864976</v>
+        <v>352.9572259641567</v>
       </c>
       <c r="H38" t="n">
         <v>277.1292905647888</v>
@@ -25439,25 +25439,25 @@
         <v>87.52360639017132</v>
       </c>
       <c r="S38" t="n">
-        <v>146.674558035267</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>160.750338013153</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>189.0001413568581</v>
       </c>
       <c r="V38" t="n">
-        <v>265.4067469191565</v>
+        <v>24.39245804149749</v>
       </c>
       <c r="W38" t="n">
-        <v>45.8811682887756</v>
+        <v>286.8954571664347</v>
       </c>
       <c r="X38" t="n">
-        <v>66.37130024983162</v>
+        <v>307.3855891274907</v>
       </c>
       <c r="Y38" t="n">
-        <v>300.6071828184912</v>
+        <v>82.87813822741617</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25479,16 @@
         <v>95.29956890442259</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.72370084240552</v>
       </c>
       <c r="G39" t="n">
-        <v>74.99800561223228</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>49.8899326855181</v>
       </c>
       <c r="I39" t="n">
-        <v>27.05112130043671</v>
+        <v>27.05112130043672</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,10 +25524,10 @@
         <v>137.8192171438432</v>
       </c>
       <c r="U39" t="n">
-        <v>138.1116590459559</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>130.3859638157826</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>104.9013095476495</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>86.269961467234</v>
       </c>
       <c r="E40" t="n">
         <v>84.08845109559081</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.07553647195289</v>
       </c>
       <c r="G40" t="n">
-        <v>100.1040939505427</v>
+        <v>105.6454678074804</v>
       </c>
       <c r="H40" t="n">
         <v>99.88166095646122</v>
@@ -25570,7 +25570,7 @@
         <v>93.10496337627993</v>
       </c>
       <c r="J40" t="n">
-        <v>31.01366856569441</v>
+        <v>31.01366856569442</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25591,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.81653170071603</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>114.9478798261911</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.6710864859939</v>
       </c>
       <c r="T40" t="n">
         <v>165.6000778773031</v>
       </c>
       <c r="U40" t="n">
-        <v>223.9735178055125</v>
+        <v>129.0677765832158</v>
       </c>
       <c r="V40" t="n">
         <v>189.7921317728496</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1774867856126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>163.3641438380588</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.2391418011164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25634,7 @@
         <v>292.3375300697046</v>
       </c>
       <c r="E41" t="n">
-        <v>319.5848585212834</v>
+        <v>78.57056964362437</v>
       </c>
       <c r="F41" t="n">
         <v>344.5305341907331</v>
@@ -25643,10 +25643,10 @@
         <v>352.9572259641567</v>
       </c>
       <c r="H41" t="n">
-        <v>277.1292905647888</v>
+        <v>36.11500168712973</v>
       </c>
       <c r="I41" t="n">
-        <v>118.0290092806228</v>
+        <v>2.255599546746339</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>87.52360639017132</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>160.750338013153</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>189.0001413568581</v>
       </c>
       <c r="V41" t="n">
-        <v>24.39245804149749</v>
+        <v>265.4067469191565</v>
       </c>
       <c r="W41" t="n">
-        <v>45.8811682887756</v>
+        <v>286.8954571664347</v>
       </c>
       <c r="X41" t="n">
         <v>307.3855891274907</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>104.187672098889</v>
       </c>
       <c r="C42" t="n">
-        <v>110.3629874373374</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>85.09955401366039</v>
+        <v>78.70486426447025</v>
       </c>
       <c r="E42" t="n">
-        <v>74.32406434410207</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>82.72370084240552</v>
@@ -25725,7 +25725,7 @@
         <v>49.8899326855181</v>
       </c>
       <c r="I42" t="n">
-        <v>27.05112130043671</v>
+        <v>27.05112130043672</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,16 +25755,16 @@
         <v>37.81232260166477</v>
       </c>
       <c r="S42" t="n">
-        <v>109.3376595528595</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.8192171438432</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>163.5958705299965</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>170.4550755984469</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>86.269961467234</v>
       </c>
       <c r="E43" t="n">
-        <v>84.08845109559081</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.07553647195289</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>105.6454678074804</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>99.88166095646122</v>
@@ -25807,7 +25807,7 @@
         <v>93.10496337627993</v>
       </c>
       <c r="J43" t="n">
-        <v>31.01366856569441</v>
+        <v>31.01366856569442</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.81653170071602</v>
+        <v>23.81653170071603</v>
       </c>
       <c r="R43" t="n">
-        <v>114.9478798261911</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.6710864859939</v>
       </c>
       <c r="T43" t="n">
-        <v>75.9223123597839</v>
+        <v>78.0350432694925</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>223.9735178055125</v>
       </c>
       <c r="V43" t="n">
         <v>189.7921317728496</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.5207159210556</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,19 +25944,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>2.053035298417342</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>105.5328776278124</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374278.3278110008</v>
+        <v>374278.3278110006</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548918.9662621575</v>
+        <v>548918.9662621574</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>525538.0974389679</v>
+        <v>525538.0974389678</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>374278.3278110008</v>
+        <v>374278.3278110006</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="F2" t="n">
         <v>265857.0760501319</v>
@@ -26332,7 +26332,7 @@
         <v>265857.0760501319</v>
       </c>
       <c r="I2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="J2" t="n">
         <v>265857.0760501319</v>
@@ -26341,10 +26341,10 @@
         <v>411715.6280372854</v>
       </c>
       <c r="L2" t="n">
-        <v>411715.6280372854</v>
+        <v>411715.6280372855</v>
       </c>
       <c r="M2" t="n">
-        <v>393233.7241578935</v>
+        <v>393233.7241578934</v>
       </c>
       <c r="N2" t="n">
         <v>393233.7241578934</v>
@@ -26353,7 +26353,7 @@
         <v>393233.7241578934</v>
       </c>
       <c r="P2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5128.299304284603</v>
+        <v>5128.299304284621</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>4003.869454409988</v>
       </c>
       <c r="K3" t="n">
-        <v>62434.68963809638</v>
+        <v>62434.68963809636</v>
       </c>
       <c r="L3" t="n">
-        <v>2611.279978297301</v>
+        <v>2611.279978297315</v>
       </c>
       <c r="M3" t="n">
         <v>41517.12806161711</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380325.6980893341</v>
+        <v>380140.4134050102</v>
       </c>
       <c r="C4" t="n">
-        <v>380325.6980893341</v>
+        <v>380140.4134050104</v>
       </c>
       <c r="D4" t="n">
-        <v>378046.7414607002</v>
+        <v>377856.5200291604</v>
       </c>
       <c r="E4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="F4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="K4" t="n">
-        <v>160269.1348555478</v>
+        <v>159985.3286967963</v>
       </c>
       <c r="L4" t="n">
-        <v>160269.1348555477</v>
+        <v>159985.3286967964</v>
       </c>
       <c r="M4" t="n">
-        <v>150015.3306409215</v>
+        <v>149738.3048426148</v>
       </c>
       <c r="N4" t="n">
-        <v>150015.3306409216</v>
+        <v>149738.3048426148</v>
       </c>
       <c r="O4" t="n">
-        <v>150015.3306409215</v>
+        <v>149738.3048426148</v>
       </c>
       <c r="P4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>22861.7316620467</v>
+        <v>22861.73166204669</v>
       </c>
       <c r="L5" t="n">
         <v>22861.7316620467</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236821.4120568876</v>
+        <v>237006.6967412115</v>
       </c>
       <c r="C6" t="n">
-        <v>241949.7113611725</v>
+        <v>242134.9960454962</v>
       </c>
       <c r="D6" t="n">
-        <v>240396.4190266315</v>
+        <v>240586.6404581711</v>
       </c>
       <c r="E6" t="n">
-        <v>127861.8899486871</v>
+        <v>128138.915746994</v>
       </c>
       <c r="F6" t="n">
-        <v>192173.7989888905</v>
+        <v>192450.8247871972</v>
       </c>
       <c r="G6" t="n">
-        <v>192173.7989888903</v>
+        <v>192450.8247871971</v>
       </c>
       <c r="H6" t="n">
-        <v>192173.7989888905</v>
+        <v>192450.8247871973</v>
       </c>
       <c r="I6" t="n">
-        <v>192173.7989888904</v>
+        <v>192450.8247871972</v>
       </c>
       <c r="J6" t="n">
-        <v>188169.9295344805</v>
+        <v>188446.9553327872</v>
       </c>
       <c r="K6" t="n">
-        <v>166150.0718815946</v>
+        <v>166433.878040346</v>
       </c>
       <c r="L6" t="n">
-        <v>225973.4815413937</v>
+        <v>226257.2877001452</v>
       </c>
       <c r="M6" t="n">
-        <v>181806.271881014</v>
+        <v>182083.2976793206</v>
       </c>
       <c r="N6" t="n">
-        <v>223323.399942631</v>
+        <v>223600.4257409377</v>
       </c>
       <c r="O6" t="n">
-        <v>223323.399942631</v>
+        <v>223600.4257409378</v>
       </c>
       <c r="P6" t="n">
-        <v>192173.7989888905</v>
+        <v>192450.8247871971</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>289.8093232149259</v>
+        <v>289.8093232149258</v>
       </c>
       <c r="L4" t="n">
         <v>289.809323214926</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>15.30273751513502</v>
       </c>
       <c r="K4" t="n">
-        <v>48.79503433726683</v>
+        <v>48.79503433726677</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949592</v>
+        <v>10.31755367949597</v>
       </c>
       <c r="M4" t="n">
         <v>166.5989633457613</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.1312362018611</v>
+        <v>379.2458896746944</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.3803041055479</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>366.6276325571267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>195.1731520552709</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27506,7 +27506,7 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
         <v>187.4326688177485</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>135.6767521783447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>217.1883789600571</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.3973945383805</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>139.9130643190076</v>
       </c>
       <c r="S5" t="n">
         <v>193.7173320711103</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>153.8011237727943</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>166.3533289786064</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>210.5379468336413</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
         <v>212.6428519131464</v>
@@ -27831,7 +27831,7 @@
         <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>361.7992248543665</v>
+        <v>382.1074777484071</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,7 +27865,7 @@
         <v>381.2557545470806</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>67.5768716934421</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
-        <v>180.0624045826735</v>
+        <v>183.1163432930735</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,34 +28050,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>266.4741176073666</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>263.9566458523602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.11207472641055</v>
       </c>
       <c r="M29" t="n">
-        <v>28.11207472641055</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O29" t="n">
-        <v>62.34551155097837</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y29" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y30" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J32" t="n">
-        <v>62.34551155097837</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N32" t="n">
-        <v>18.12137551186577</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544788</v>
+        <v>16.16278537179803</v>
       </c>
       <c r="R32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y32" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y33" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y35" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y36" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y38" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y39" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y41" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y42" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="C43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="D43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="E43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="F43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="G43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="H43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="I43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="J43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="K43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="L43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="M43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="N43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="O43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="P43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Q43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="R43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="S43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="T43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="U43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="V43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="W43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="X43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.34551155097837</v>
+        <v>62.34551155097836</v>
       </c>
     </row>
     <row r="44">
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L2" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
         <v>15.30273751513505</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>15.30273751513505</v>
@@ -34863,10 +34863,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N4" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
         <v>15.30273751513505</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="Q6" t="n">
         <v>15.30273751513505</v>
@@ -35097,13 +35097,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O7" t="n">
         <v>15.30273751513505</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
         <v>25.62029119463083</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,13 +35735,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>50.39622219636585</v>
+        <v>50.39622219636584</v>
       </c>
       <c r="K29" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>181.8947995804632</v>
+        <v>210.0068743068738</v>
       </c>
       <c r="M29" t="n">
-        <v>247.2793749919703</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>270.2793723663716</v>
       </c>
       <c r="O29" t="n">
-        <v>213.047481392037</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.35481233643356</v>
+        <v>52.35481233643355</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>289.8093232149259</v>
+        <v>119.5825868088295</v>
       </c>
       <c r="N30" t="n">
-        <v>289.8093232149259</v>
+        <v>289.8093232149258</v>
       </c>
       <c r="O30" t="n">
-        <v>138.9039016135762</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.39622219636585</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>166.4010730771626</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37078,7 +37078,7 @@
         <v>281.5128118165381</v>
       </c>
       <c r="N32" t="n">
-        <v>226.055236327259</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>213.047481392037</v>
@@ -37087,7 +37087,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.172086157253222</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37634,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38102,7 +38102,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38111,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
